--- a/webService/sample.xlsx
+++ b/webService/sample.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="124519"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>K-NN</t>
   </si>
@@ -22,6 +22,18 @@
     <t>K-NN Centroid</t>
   </si>
   <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>SVM-SVC</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
     <t>Users</t>
   </si>
   <si>
@@ -31,94 +43,134 @@
     <t>Standard Deviation</t>
   </si>
   <si>
-    <t xml:space="preserve">   82.22%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.91%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   35.56%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.48%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   84.44%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   17.59%</t>
+    <t xml:space="preserve">   87.69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.03%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   38.46%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   18.94%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   81.54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.64%</t>
   </si>
   <si>
     <t xml:space="preserve">   80.00%</t>
   </si>
   <si>
-    <t xml:space="preserve">   15.45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   60.00%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   27.39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   73.33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   19.66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   88.89%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10.60%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.54%</t>
+    <t xml:space="preserve">    4.65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20.49%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.78%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   64.62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22.92%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   89.23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.47%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   69.23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32.25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20.30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   86.15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   93.85%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16.28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   90.77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   78.46%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22.29%</t>
   </si>
   <si>
     <t xml:space="preserve">   14.26%</t>
   </si>
   <si>
-    <t xml:space="preserve">   13.85%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   86.67%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   25.67%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   75.56%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   32.02%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.28%</t>
-  </si>
-  <si>
-    <t>Decision Tree</t>
+    <t xml:space="preserve">   11.13%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   70.77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16.37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   75.38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.92%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.76%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.75%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,22 +186,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -437,178 +483,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
+    <row r="6" spans="1:13">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/webService/sample.xlsx
+++ b/webService/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>K-NN</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Random Forest</t>
   </si>
   <si>
+    <t>Neural Network - MPL</t>
+  </si>
+  <si>
     <t>Users</t>
   </si>
   <si>
@@ -43,115 +46,124 @@
     <t>Standard Deviation</t>
   </si>
   <si>
+    <t xml:space="preserve">   80.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   17.92%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   55.38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   23.83%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   72.31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16.94%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   81.54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   18.52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   83.08%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.13%</t>
+  </si>
+  <si>
     <t xml:space="preserve">   87.69%</t>
   </si>
   <si>
-    <t xml:space="preserve">   13.03%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   38.46%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   18.94%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   81.54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   12.64%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   80.00%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.65%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   20.49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.57%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   12.78%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   64.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   22.92%</t>
+    <t xml:space="preserve">    9.67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   69.23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.44%</t>
   </si>
   <si>
     <t xml:space="preserve">   89.23%</t>
   </si>
   <si>
-    <t xml:space="preserve">   10.31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.47%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   69.23%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   32.25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   20.30%</t>
+    <t xml:space="preserve">   16.52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16.78%</t>
   </si>
   <si>
     <t xml:space="preserve">   86.15%</t>
   </si>
   <si>
-    <t xml:space="preserve">   12.45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   93.85%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   16.28%</t>
+    <t xml:space="preserve">   15.63%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19.73%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   78.46%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   27.61%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19.57%</t>
   </si>
   <si>
     <t xml:space="preserve">   90.77%</t>
   </si>
   <si>
-    <t xml:space="preserve">   11.53%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   78.46%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   22.29%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.13%</t>
+    <t xml:space="preserve">    9.79%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16.86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19.35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   84.62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   63.08%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22.58%</t>
   </si>
   <si>
     <t xml:space="preserve">   70.77%</t>
   </si>
   <si>
-    <t xml:space="preserve">   16.37%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   75.38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.92%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.76%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   13.75%</t>
+    <t xml:space="preserve">   19.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.90%</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +508,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -515,251 +527,290 @@
       <c r="L1" t="s">
         <v>5</v>
       </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
       <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
       <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
         <v>8</v>
       </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" t="n">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" t="n">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="n">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" t="n">
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" t="n">
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
